--- a/Sales_Leads.xlsx
+++ b/Sales_Leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Timestamp</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PhoneNumber</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -476,6 +481,7 @@
           <t>2025-10-31 16:25:01</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +504,7 @@
           <t>2025-10-31 16:26:37</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +527,7 @@
           <t>2025-10-31 16:29:01</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +550,7 @@
           <t>2025-10-31 16:30:21</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +573,7 @@
           <t>2025-10-31 16:35:07</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +596,7 @@
           <t>2025-10-31 16:36:03</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -606,6 +617,34 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>2025-10-31 17:09:02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Batman.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-11-04 17:39:01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>+919510038048</t>
         </is>
       </c>
     </row>

--- a/Sales_Leads.xlsx
+++ b/Sales_Leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,9 +642,134 @@
           <t>2025-11-04 17:39:01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>+919510038048</t>
+      <c r="E9" t="n">
+        <v>919510038048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Yes.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-11-04 20:02:48</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>919510038048</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Motor.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-11-05 17:11:40</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>919510038048</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3G Nola.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-11-05 17:18:54</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>919106284482</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3G Nola.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-11-05 17:57:44</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>919106284482</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>As.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-11-05 17:57:54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+919328027733</t>
         </is>
       </c>
     </row>

--- a/Sales_Leads.xlsx
+++ b/Sales_Leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,9 +767,109 @@
           <t>2025-11-05 17:57:54</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>+919328027733</t>
+      <c r="E14" t="n">
+        <v>919328027733</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Yes, I am there.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-11-24 19:33:40</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>919510038048</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Yash</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-11-25 15:23:57</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>917990747606</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Batman</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-11-25 18:38:57</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>917990747606</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Yasha</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-11-25 19:31:00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>+917990747606</t>
         </is>
       </c>
     </row>

--- a/Sales_Leads.xlsx
+++ b/Sales_Leads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,9 +867,34 @@
           <t>2025-11-25 19:31:00</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>+917990747606</t>
+      <c r="E18" t="n">
+        <v>917990747606</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>book</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Interested</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-11-27 17:48:48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>+919510038048</t>
         </is>
       </c>
     </row>
